--- a/Raj Chudasama/2022-12-21/Hampton Trophy Club/remaining arrivals 12-21-22.xlsx
+++ b/Raj Chudasama/2022-12-21/Hampton Trophy Club/remaining arrivals 12-21-22.xlsx
@@ -37,16 +37,16 @@
     <t>Room Type</t>
   </si>
   <si>
-    <t>BRIGGS/RICHARD</t>
-  </si>
-  <si>
-    <t>Buttermore/Ryan</t>
-  </si>
-  <si>
-    <t>GROVES/TIM</t>
-  </si>
-  <si>
-    <t>MALCOLM/CHARLES</t>
+    <t xml:space="preserve">BRIGGS/RICHARD </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buttermore/Ryan </t>
+  </si>
+  <si>
+    <t xml:space="preserve">GROVES/TIM </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MALCOLM/CHARLES </t>
   </si>
   <si>
     <t>MALCOLM/DIANN</t>
@@ -55,16 +55,16 @@
     <t>Sullivan/Candi</t>
   </si>
   <si>
-    <t>Sullivan/Michael</t>
-  </si>
-  <si>
-    <t>TRIPPENSEE/AUSTIN</t>
+    <t xml:space="preserve">Sullivan/Michael </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRIPPENSEE/AUSTIN </t>
   </si>
   <si>
     <t>Winstead/Leslie</t>
   </si>
   <si>
-    <t>Winstead/Seth</t>
+    <t xml:space="preserve">Winstead/Seth </t>
   </si>
   <si>
     <t>B</t>
@@ -109,7 +109,7 @@
     <t>L-SRR</t>
   </si>
   <si>
-    <t>12/21/2022</t>
+    <t>12/22/2022</t>
   </si>
   <si>
     <t>NQRU</t>
@@ -476,253 +476,223 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
-        <v>0</v>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
         <v>17</v>
       </c>
+      <c r="D2" t="s">
+        <v>21</v>
+      </c>
       <c r="E2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="F2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" t="s">
         <v>28</v>
       </c>
-      <c r="G2" t="s">
-        <v>31</v>
-      </c>
-      <c r="H2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="F7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" t="s">
+        <v>31</v>
+      </c>
+      <c r="G8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" t="s">
         <v>29</v>
       </c>
-      <c r="G3" t="s">
-        <v>31</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="F9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G9" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" t="s">
-        <v>30</v>
-      </c>
-      <c r="G4" t="s">
-        <v>31</v>
-      </c>
-      <c r="H4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" t="s">
-        <v>30</v>
-      </c>
-      <c r="G5" t="s">
-        <v>31</v>
-      </c>
-      <c r="H5" t="s">
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" t="s">
+        <v>31</v>
+      </c>
+      <c r="G10" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" t="s">
-        <v>31</v>
-      </c>
-      <c r="H6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F7" t="s">
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" t="s">
         <v>28</v>
       </c>
-      <c r="G7" t="s">
-        <v>31</v>
-      </c>
-      <c r="H7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" t="s">
-        <v>25</v>
-      </c>
-      <c r="F8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G8" t="s">
-        <v>31</v>
-      </c>
-      <c r="H8" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F9" t="s">
-        <v>29</v>
-      </c>
-      <c r="G9" t="s">
-        <v>31</v>
-      </c>
-      <c r="H9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>15</v>
-      </c>
-      <c r="E10" t="s">
-        <v>27</v>
-      </c>
-      <c r="F10" t="s">
-        <v>28</v>
-      </c>
-      <c r="G10" t="s">
-        <v>31</v>
-      </c>
-      <c r="H10" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E11" t="s">
-        <v>27</v>
-      </c>
       <c r="F11" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="G11" t="s">
-        <v>31</v>
-      </c>
-      <c r="H11" t="s">
         <v>33</v>
       </c>
     </row>
